--- a/database/industries/folad/kave/product/monthly.xlsx
+++ b/database/industries/folad/kave/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3231,152 +3231,152 @@
       <c r="E11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
+      <c r="F11" s="13" t="n">
+        <v>101030</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>101030</v>
+        <v>98191</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>98191</v>
+        <v>96024</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>96024</v>
+        <v>94753</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>94753</v>
+        <v>101657</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>101657</v>
+        <v>98860</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>98860</v>
+        <v>92432</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>92432</v>
+        <v>100913</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>100913</v>
+        <v>104275</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>104275</v>
+        <v>92864</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>92864</v>
+        <v>90139</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>90139</v>
+        <v>86345</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>86345</v>
+        <v>100516</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>100516</v>
+        <v>71774</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>71774</v>
+        <v>60306</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>60306</v>
+        <v>91491</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>91491</v>
+        <v>109648</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>109648</v>
+        <v>125851</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>125851</v>
+        <v>124285</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>124285</v>
+        <v>138847</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>138847</v>
+        <v>139560</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>139560</v>
+        <v>131312</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>131312</v>
+        <v>157951</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>157951</v>
+        <v>139407</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>139407</v>
+        <v>148080</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>148080</v>
+        <v>141667</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>141667</v>
+        <v>127994</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>127994</v>
+        <v>49690</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>49690</v>
+        <v>42805</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>42805</v>
+        <v>105525</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>105525</v>
+        <v>148460</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>148460</v>
+        <v>132390</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>132390</v>
+        <v>129937</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>129937</v>
+        <v>132327</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>132327</v>
+        <v>134150</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>134150</v>
+        <v>146160</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>146160</v>
+        <v>151962</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>151962</v>
+        <v>144147</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>144147</v>
+        <v>149696</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>149696</v>
+        <v>120975</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>120975</v>
+        <v>110864</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>110864</v>
+        <v>158068</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>158068</v>
+        <v>147248</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>147248</v>
+        <v>136238</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>136238</v>
+        <v>127206</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>127206</v>
+        <v>76236</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>76236</v>
+        <v>69459</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>69459</v>
+        <v>149009</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>149009</v>
+        <v>181172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,152 +3390,152 @@
       <c r="E12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>57</v>
+      <c r="F12" s="16" t="n">
+        <v>105558</v>
       </c>
       <c r="G12" s="16" t="n">
-        <v>105558</v>
+        <v>152852</v>
       </c>
       <c r="H12" s="16" t="n">
-        <v>152852</v>
+        <v>116366</v>
       </c>
       <c r="I12" s="16" t="n">
-        <v>116366</v>
+        <v>115517</v>
       </c>
       <c r="J12" s="16" t="n">
-        <v>115517</v>
+        <v>136175</v>
       </c>
       <c r="K12" s="16" t="n">
-        <v>136175</v>
+        <v>135201</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>135201</v>
+        <v>123365</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>123365</v>
+        <v>137749</v>
       </c>
       <c r="N12" s="16" t="n">
-        <v>137749</v>
+        <v>142884</v>
       </c>
       <c r="O12" s="16" t="n">
-        <v>142884</v>
+        <v>109130</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>109130</v>
+        <v>101902</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>101902</v>
+        <v>141948</v>
       </c>
       <c r="R12" s="16" t="n">
-        <v>141948</v>
+        <v>124246</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>124246</v>
+        <v>152123</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>152123</v>
+        <v>144427</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>144427</v>
+        <v>110757</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>110757</v>
+        <v>138745</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>138745</v>
+        <v>158262</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>158262</v>
+        <v>154200</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>154200</v>
+        <v>159150</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>159150</v>
+        <v>162708</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>162708</v>
+        <v>145245</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>145245</v>
+        <v>106642</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>106642</v>
+        <v>157203</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>157203</v>
+        <v>160865</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>160865</v>
+        <v>155448</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>155448</v>
+        <v>142821</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>142821</v>
+        <v>140498</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>140498</v>
+        <v>95399</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>95399</v>
+        <v>120596</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>120596</v>
+        <v>126136</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>126136</v>
+        <v>197838</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>197838</v>
+        <v>146125</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>146125</v>
+        <v>159255</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>159255</v>
+        <v>172959</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>172959</v>
+        <v>148737</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>148737</v>
+        <v>179843</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>179843</v>
+        <v>175841</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>175841</v>
+        <v>169364</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>169364</v>
+        <v>164007</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>164007</v>
+        <v>95272</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>95272</v>
+        <v>168680</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>168680</v>
+        <v>158052</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>158052</v>
+        <v>136450</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>136450</v>
+        <v>147403</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>147403</v>
+        <v>87512</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>87512</v>
+        <v>83509</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>83509</v>
+        <v>166980</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>166980</v>
+        <v>179777</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,13 +3547,13 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>49877</v>
-      </c>
-      <c r="F13" s="13" t="n">
         <v>46000</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>57</v>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" s="13" t="n">
         <v>0</v>
@@ -3582,8 +3582,8 @@
       <c r="P13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="13" t="n">
-        <v>0</v>
+      <c r="Q13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R13" s="13" t="s">
         <v>57</v>
@@ -3706,11 +3706,11 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>51913</v>
-      </c>
-      <c r="F14" s="16" t="n">
         <v>47820</v>
       </c>
+      <c r="F14" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="16" t="s">
         <v>57</v>
       </c>
@@ -3723,8 +3723,8 @@
       <c r="J14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>57</v>
+      <c r="K14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L14" s="16" t="n">
         <v>0</v>
@@ -3741,8 +3741,8 @@
       <c r="P14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="16" t="n">
-        <v>0</v>
+      <c r="Q14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -3867,11 +3867,11 @@
       <c r="E15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>57</v>
+      <c r="F15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="13" t="n">
         <v>0</v>
@@ -3912,8 +3912,8 @@
       <c r="T15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U15" s="13" t="n">
-        <v>0</v>
+      <c r="U15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V15" s="13" t="s">
         <v>57</v>
@@ -4024,10 +4024,10 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>62485</v>
+        <v>50000</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="16" t="n">
         <v>0</v>
@@ -4059,8 +4059,8 @@
       <c r="P16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="16" t="n">
-        <v>0</v>
+      <c r="Q16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>57</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>26779</v>
+        <v>18786</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>18786</v>
+        <v>0</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>0</v>
@@ -4218,8 +4218,8 @@
       <c r="P17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="13" t="n">
-        <v>0</v>
+      <c r="Q17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R17" s="13" t="s">
         <v>57</v>
@@ -4446,8 +4446,8 @@
       <c r="T19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>57</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4476,8 +4476,8 @@
       <c r="AD19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
+      <c r="AE19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>57</v>
@@ -4603,8 +4603,8 @@
       <c r="T20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="18" t="s">
-        <v>57</v>
+      <c r="U20" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="18" t="n">
         <v>0</v>
@@ -4713,154 +4713,154 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
-        <v>191054</v>
+        <v>162606</v>
       </c>
       <c r="F21" s="20" t="n">
-        <v>162606</v>
+        <v>206588</v>
       </c>
       <c r="G21" s="20" t="n">
-        <v>206588</v>
+        <v>251043</v>
       </c>
       <c r="H21" s="20" t="n">
-        <v>251043</v>
+        <v>212390</v>
       </c>
       <c r="I21" s="20" t="n">
-        <v>212390</v>
+        <v>210270</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>210270</v>
+        <v>237832</v>
       </c>
       <c r="K21" s="20" t="n">
-        <v>237832</v>
+        <v>234061</v>
       </c>
       <c r="L21" s="20" t="n">
-        <v>234061</v>
+        <v>215797</v>
       </c>
       <c r="M21" s="20" t="n">
-        <v>215797</v>
+        <v>238662</v>
       </c>
       <c r="N21" s="20" t="n">
-        <v>238662</v>
+        <v>247159</v>
       </c>
       <c r="O21" s="20" t="n">
-        <v>247159</v>
+        <v>201994</v>
       </c>
       <c r="P21" s="20" t="n">
-        <v>201994</v>
+        <v>192041</v>
       </c>
       <c r="Q21" s="20" t="n">
-        <v>192041</v>
+        <v>228293</v>
       </c>
       <c r="R21" s="20" t="n">
-        <v>228293</v>
+        <v>224762</v>
       </c>
       <c r="S21" s="20" t="n">
-        <v>224762</v>
+        <v>223897</v>
       </c>
       <c r="T21" s="20" t="n">
-        <v>223897</v>
+        <v>204733</v>
       </c>
       <c r="U21" s="20" t="n">
-        <v>204733</v>
+        <v>202248</v>
       </c>
       <c r="V21" s="20" t="n">
-        <v>202248</v>
+        <v>248393</v>
       </c>
       <c r="W21" s="20" t="n">
-        <v>248393</v>
+        <v>284113</v>
       </c>
       <c r="X21" s="20" t="n">
-        <v>284113</v>
+        <v>278485</v>
       </c>
       <c r="Y21" s="20" t="n">
-        <v>278485</v>
+        <v>297997</v>
       </c>
       <c r="Z21" s="20" t="n">
-        <v>297997</v>
+        <v>302268</v>
       </c>
       <c r="AA21" s="20" t="n">
-        <v>302268</v>
+        <v>276557</v>
       </c>
       <c r="AB21" s="20" t="n">
-        <v>276557</v>
+        <v>264593</v>
       </c>
       <c r="AC21" s="20" t="n">
-        <v>264593</v>
+        <v>296610</v>
       </c>
       <c r="AD21" s="20" t="n">
-        <v>296610</v>
+        <v>308945</v>
       </c>
       <c r="AE21" s="20" t="n">
-        <v>308945</v>
+        <v>297115</v>
       </c>
       <c r="AF21" s="20" t="n">
-        <v>297115</v>
+        <v>270815</v>
       </c>
       <c r="AG21" s="20" t="n">
-        <v>270815</v>
+        <v>190188</v>
       </c>
       <c r="AH21" s="20" t="n">
-        <v>190188</v>
+        <v>138204</v>
       </c>
       <c r="AI21" s="20" t="n">
-        <v>138204</v>
+        <v>226121</v>
       </c>
       <c r="AJ21" s="20" t="n">
-        <v>226121</v>
+        <v>274596</v>
       </c>
       <c r="AK21" s="20" t="n">
-        <v>274596</v>
+        <v>330228</v>
       </c>
       <c r="AL21" s="20" t="n">
-        <v>330228</v>
+        <v>276062</v>
       </c>
       <c r="AM21" s="20" t="n">
-        <v>276062</v>
+        <v>291582</v>
       </c>
       <c r="AN21" s="20" t="n">
-        <v>291582</v>
+        <v>307109</v>
       </c>
       <c r="AO21" s="20" t="n">
-        <v>307109</v>
+        <v>294897</v>
       </c>
       <c r="AP21" s="20" t="n">
-        <v>294897</v>
+        <v>331805</v>
       </c>
       <c r="AQ21" s="20" t="n">
-        <v>331805</v>
+        <v>319988</v>
       </c>
       <c r="AR21" s="20" t="n">
-        <v>319988</v>
+        <v>319060</v>
       </c>
       <c r="AS21" s="20" t="n">
-        <v>319060</v>
+        <v>284982</v>
       </c>
       <c r="AT21" s="20" t="n">
-        <v>284982</v>
+        <v>206136</v>
       </c>
       <c r="AU21" s="20" t="n">
-        <v>206136</v>
+        <v>326748</v>
       </c>
       <c r="AV21" s="20" t="n">
-        <v>326748</v>
+        <v>305300</v>
       </c>
       <c r="AW21" s="20" t="n">
-        <v>305300</v>
+        <v>272688</v>
       </c>
       <c r="AX21" s="20" t="n">
-        <v>272688</v>
+        <v>274609</v>
       </c>
       <c r="AY21" s="20" t="n">
-        <v>274609</v>
+        <v>163748</v>
       </c>
       <c r="AZ21" s="20" t="n">
-        <v>163748</v>
+        <v>152968</v>
       </c>
       <c r="BA21" s="20" t="n">
-        <v>152968</v>
+        <v>315989</v>
       </c>
       <c r="BB21" s="20" t="n">
-        <v>315989</v>
+        <v>360949</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,8 +5308,8 @@
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>57</v>
+      <c r="F28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>0</v>
@@ -5342,118 +5342,118 @@
         <v>0</v>
       </c>
       <c r="Q28" s="13" t="n">
-        <v>0</v>
+        <v>92315</v>
       </c>
       <c r="R28" s="13" t="n">
-        <v>92315</v>
+        <v>78903</v>
       </c>
       <c r="S28" s="13" t="n">
-        <v>78903</v>
+        <v>98573</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>98573</v>
+        <v>48871</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>48871</v>
+        <v>95964</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>95964</v>
+        <v>98220</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>98220</v>
+        <v>127704</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>127704</v>
+        <v>111819</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>111819</v>
+        <v>136370</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>136370</v>
+        <v>124115</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>124115</v>
+        <v>159301</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>159301</v>
+        <v>160560</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>160560</v>
+        <v>139442</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>139442</v>
+        <v>95804</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>95804</v>
+        <v>181598</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>181598</v>
+        <v>136774</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>136774</v>
+        <v>33673</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>33673</v>
+        <v>56699</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>56699</v>
+        <v>99103</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>99103</v>
+        <v>148293</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>148293</v>
+        <v>124348</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>124348</v>
+        <v>118672</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>118672</v>
+        <v>127637</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>127637</v>
+        <v>152068</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>152068</v>
+        <v>141014</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>141014</v>
+        <v>160669</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>160669</v>
+        <v>88599</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>88599</v>
+        <v>170283</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>170283</v>
+        <v>129163</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>129163</v>
+        <v>121842</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>121842</v>
+        <v>144280</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>144280</v>
+        <v>172019</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>172019</v>
+        <v>123094</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>123094</v>
+        <v>122335</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>122335</v>
+        <v>102191</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>102191</v>
+        <v>66626</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>66626</v>
+        <v>161736</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>161736</v>
+        <v>154371</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,8 +5467,8 @@
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>57</v>
+      <c r="F29" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G29" s="16" t="n">
         <v>0</v>
@@ -5504,31 +5504,31 @@
         <v>0</v>
       </c>
       <c r="R29" s="16" t="n">
-        <v>0</v>
+        <v>5826</v>
       </c>
       <c r="S29" s="16" t="n">
-        <v>5826</v>
+        <v>31084</v>
       </c>
       <c r="T29" s="16" t="n">
-        <v>31084</v>
+        <v>68900</v>
       </c>
       <c r="U29" s="16" t="n">
-        <v>68900</v>
+        <v>12956</v>
       </c>
       <c r="V29" s="16" t="n">
-        <v>12956</v>
+        <v>6485</v>
       </c>
       <c r="W29" s="16" t="n">
-        <v>6485</v>
+        <v>1263</v>
       </c>
       <c r="X29" s="16" t="n">
-        <v>1263</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="16" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Z29" s="16" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="16" t="n">
         <v>0</v>
@@ -5552,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>0</v>
+        <v>2998</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>2998</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="16" t="n">
         <v>0</v>
@@ -5624,43 +5624,43 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13" t="n">
         <v>557</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>57</v>
+      <c r="F30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>2850</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>2850</v>
+        <v>1913</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>1913</v>
+        <v>0</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>0</v>
+        <v>12534</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>12534</v>
+        <v>9826</v>
       </c>
       <c r="L30" s="13" t="n">
-        <v>9826</v>
+        <v>0</v>
       </c>
       <c r="M30" s="13" t="n">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="N30" s="13" t="n">
-        <v>3578</v>
+        <v>2941</v>
       </c>
       <c r="O30" s="13" t="n">
-        <v>2941</v>
+        <v>3469</v>
       </c>
       <c r="P30" s="13" t="n">
-        <v>3469</v>
-      </c>
-      <c r="Q30" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R30" s="13" t="s">
         <v>57</v>
@@ -5783,11 +5783,11 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>1114</v>
-      </c>
-      <c r="F31" s="16" t="n">
         <v>370</v>
       </c>
+      <c r="F31" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G31" s="16" t="s">
         <v>57</v>
       </c>
@@ -5800,26 +5800,26 @@
       <c r="J31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>57</v>
+      <c r="K31" s="16" t="n">
+        <v>14865</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>14865</v>
+        <v>13565</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>13565</v>
+        <v>5615</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>5615</v>
+        <v>1447</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>1447</v>
+        <v>0</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16" t="n">
         <v>925</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
@@ -5944,17 +5944,17 @@
       <c r="E32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>57</v>
+      <c r="F32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>15382</v>
       </c>
       <c r="H32" s="13" t="n">
-        <v>15382</v>
+        <v>2929</v>
       </c>
       <c r="I32" s="13" t="n">
-        <v>2929</v>
+        <v>0</v>
       </c>
       <c r="J32" s="13" t="n">
         <v>0</v>
@@ -5963,34 +5963,34 @@
         <v>0</v>
       </c>
       <c r="L32" s="13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M32" s="13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N32" s="13" t="n">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="O32" s="13" t="n">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="P32" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="13" t="n">
-        <v>0</v>
+        <v>2051</v>
       </c>
       <c r="R32" s="13" t="n">
-        <v>2051</v>
+        <v>4113</v>
       </c>
       <c r="S32" s="13" t="n">
-        <v>4113</v>
+        <v>5439</v>
       </c>
       <c r="T32" s="13" t="n">
-        <v>5439</v>
-      </c>
-      <c r="U32" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V32" s="13" t="s">
         <v>57</v>
@@ -6101,43 +6101,43 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16" t="n">
-        <v>24665</v>
+        <v>90876</v>
       </c>
       <c r="F33" s="16" t="n">
-        <v>90876</v>
+        <v>28822</v>
       </c>
       <c r="G33" s="16" t="n">
-        <v>28822</v>
+        <v>73815</v>
       </c>
       <c r="H33" s="16" t="n">
-        <v>73815</v>
+        <v>96058</v>
       </c>
       <c r="I33" s="16" t="n">
-        <v>96058</v>
+        <v>102030</v>
       </c>
       <c r="J33" s="16" t="n">
-        <v>102030</v>
+        <v>84594</v>
       </c>
       <c r="K33" s="16" t="n">
-        <v>84594</v>
+        <v>76710</v>
       </c>
       <c r="L33" s="16" t="n">
-        <v>76710</v>
+        <v>71379</v>
       </c>
       <c r="M33" s="16" t="n">
-        <v>71379</v>
+        <v>74153</v>
       </c>
       <c r="N33" s="16" t="n">
-        <v>74153</v>
+        <v>84315</v>
       </c>
       <c r="O33" s="16" t="n">
-        <v>84315</v>
+        <v>71285</v>
       </c>
       <c r="P33" s="16" t="n">
-        <v>71285</v>
-      </c>
-      <c r="Q33" s="16" t="n">
         <v>65850</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
@@ -6260,43 +6260,43 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="n">
-        <v>28296</v>
+        <v>19705</v>
       </c>
       <c r="F34" s="13" t="n">
-        <v>19705</v>
+        <v>32691</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>32691</v>
+        <v>24425</v>
       </c>
       <c r="H34" s="13" t="n">
-        <v>24425</v>
+        <v>24150</v>
       </c>
       <c r="I34" s="13" t="n">
-        <v>24150</v>
+        <v>28794</v>
       </c>
       <c r="J34" s="13" t="n">
-        <v>28794</v>
+        <v>15803</v>
       </c>
       <c r="K34" s="13" t="n">
-        <v>15803</v>
+        <v>30552</v>
       </c>
       <c r="L34" s="13" t="n">
-        <v>30552</v>
+        <v>20110</v>
       </c>
       <c r="M34" s="13" t="n">
-        <v>20110</v>
+        <v>24302</v>
       </c>
       <c r="N34" s="13" t="n">
-        <v>24302</v>
+        <v>31589</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>31589</v>
+        <v>16816</v>
       </c>
       <c r="P34" s="13" t="n">
-        <v>16816</v>
-      </c>
-      <c r="Q34" s="13" t="n">
         <v>29028</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R34" s="13" t="s">
         <v>57</v>
@@ -6523,11 +6523,11 @@
       <c r="T36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>57</v>
+      <c r="U36" s="13" t="n">
+        <v>1459</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13" t="n">
         <v>0</v>
@@ -6536,13 +6536,13 @@
         <v>0</v>
       </c>
       <c r="Y36" s="13" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>972</v>
+        <v>1584</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="13" t="n">
         <v>0</v>
@@ -6553,8 +6553,8 @@
       <c r="AD36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE36" s="13" t="n">
-        <v>0</v>
+      <c r="AE36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF36" s="13" t="s">
         <v>57</v>
@@ -6680,11 +6680,11 @@
       <c r="T37" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="18" t="s">
-        <v>57</v>
+      <c r="U37" s="18" t="n">
+        <v>1459</v>
       </c>
       <c r="V37" s="18" t="n">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="W37" s="18" t="n">
         <v>0</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="Y37" s="18" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="Z37" s="18" t="n">
-        <v>972</v>
+        <v>1584</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="18" t="n">
         <v>0</v>
@@ -6894,8 +6894,8 @@
       <c r="T39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="20" t="s">
-        <v>57</v>
+      <c r="U39" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="20" t="n">
         <v>0</v>
@@ -7004,154 +7004,154 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="n">
-        <v>54075</v>
+        <v>111508</v>
       </c>
       <c r="F40" s="18" t="n">
-        <v>111508</v>
+        <v>61513</v>
       </c>
       <c r="G40" s="18" t="n">
-        <v>61513</v>
+        <v>116472</v>
       </c>
       <c r="H40" s="18" t="n">
-        <v>116472</v>
+        <v>125050</v>
       </c>
       <c r="I40" s="18" t="n">
-        <v>125050</v>
+        <v>130824</v>
       </c>
       <c r="J40" s="18" t="n">
-        <v>130824</v>
+        <v>112931</v>
       </c>
       <c r="K40" s="18" t="n">
-        <v>112931</v>
+        <v>131953</v>
       </c>
       <c r="L40" s="18" t="n">
-        <v>131953</v>
+        <v>106054</v>
       </c>
       <c r="M40" s="18" t="n">
-        <v>106054</v>
+        <v>107648</v>
       </c>
       <c r="N40" s="18" t="n">
-        <v>107648</v>
+        <v>121501</v>
       </c>
       <c r="O40" s="18" t="n">
-        <v>121501</v>
+        <v>91570</v>
       </c>
       <c r="P40" s="18" t="n">
-        <v>91570</v>
+        <v>95803</v>
       </c>
       <c r="Q40" s="18" t="n">
-        <v>95803</v>
+        <v>94366</v>
       </c>
       <c r="R40" s="18" t="n">
-        <v>94366</v>
+        <v>88842</v>
       </c>
       <c r="S40" s="18" t="n">
-        <v>88842</v>
+        <v>135096</v>
       </c>
       <c r="T40" s="18" t="n">
-        <v>135096</v>
+        <v>117771</v>
       </c>
       <c r="U40" s="18" t="n">
-        <v>117771</v>
+        <v>110379</v>
       </c>
       <c r="V40" s="18" t="n">
-        <v>110379</v>
+        <v>104705</v>
       </c>
       <c r="W40" s="18" t="n">
-        <v>104705</v>
+        <v>128967</v>
       </c>
       <c r="X40" s="18" t="n">
-        <v>128967</v>
+        <v>111819</v>
       </c>
       <c r="Y40" s="18" t="n">
-        <v>111819</v>
+        <v>142342</v>
       </c>
       <c r="Z40" s="18" t="n">
-        <v>142342</v>
+        <v>125699</v>
       </c>
       <c r="AA40" s="18" t="n">
-        <v>125699</v>
+        <v>159301</v>
       </c>
       <c r="AB40" s="18" t="n">
-        <v>159301</v>
+        <v>160560</v>
       </c>
       <c r="AC40" s="18" t="n">
-        <v>160560</v>
+        <v>139442</v>
       </c>
       <c r="AD40" s="18" t="n">
-        <v>139442</v>
+        <v>95804</v>
       </c>
       <c r="AE40" s="18" t="n">
-        <v>95804</v>
+        <v>181598</v>
       </c>
       <c r="AF40" s="18" t="n">
-        <v>181598</v>
+        <v>136774</v>
       </c>
       <c r="AG40" s="18" t="n">
-        <v>136774</v>
+        <v>33673</v>
       </c>
       <c r="AH40" s="18" t="n">
-        <v>33673</v>
+        <v>59697</v>
       </c>
       <c r="AI40" s="18" t="n">
-        <v>59697</v>
+        <v>99103</v>
       </c>
       <c r="AJ40" s="18" t="n">
-        <v>99103</v>
+        <v>148293</v>
       </c>
       <c r="AK40" s="18" t="n">
-        <v>148293</v>
+        <v>124348</v>
       </c>
       <c r="AL40" s="18" t="n">
-        <v>124348</v>
+        <v>118672</v>
       </c>
       <c r="AM40" s="18" t="n">
-        <v>118672</v>
+        <v>127637</v>
       </c>
       <c r="AN40" s="18" t="n">
-        <v>127637</v>
+        <v>152068</v>
       </c>
       <c r="AO40" s="18" t="n">
-        <v>152068</v>
+        <v>141014</v>
       </c>
       <c r="AP40" s="18" t="n">
-        <v>141014</v>
+        <v>160669</v>
       </c>
       <c r="AQ40" s="18" t="n">
-        <v>160669</v>
+        <v>88599</v>
       </c>
       <c r="AR40" s="18" t="n">
-        <v>88599</v>
+        <v>170283</v>
       </c>
       <c r="AS40" s="18" t="n">
-        <v>170283</v>
+        <v>129163</v>
       </c>
       <c r="AT40" s="18" t="n">
-        <v>129163</v>
+        <v>121842</v>
       </c>
       <c r="AU40" s="18" t="n">
-        <v>121842</v>
+        <v>144280</v>
       </c>
       <c r="AV40" s="18" t="n">
-        <v>144280</v>
+        <v>172019</v>
       </c>
       <c r="AW40" s="18" t="n">
-        <v>172019</v>
+        <v>123094</v>
       </c>
       <c r="AX40" s="18" t="n">
-        <v>123094</v>
+        <v>122335</v>
       </c>
       <c r="AY40" s="18" t="n">
-        <v>122335</v>
+        <v>102191</v>
       </c>
       <c r="AZ40" s="18" t="n">
-        <v>102191</v>
+        <v>66626</v>
       </c>
       <c r="BA40" s="18" t="n">
-        <v>66626</v>
+        <v>161736</v>
       </c>
       <c r="BB40" s="18" t="n">
-        <v>161736</v>
+        <v>154371</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,8 +7599,8 @@
       <c r="E47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>57</v>
+      <c r="F47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>0</v>
@@ -7633,118 +7633,118 @@
         <v>0</v>
       </c>
       <c r="Q47" s="13" t="n">
-        <v>0</v>
+        <v>4747333</v>
       </c>
       <c r="R47" s="13" t="n">
-        <v>4747333</v>
+        <v>3935857</v>
       </c>
       <c r="S47" s="13" t="n">
-        <v>3935857</v>
+        <v>5422543</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>5422543</v>
+        <v>2973815</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>2973815</v>
+        <v>7058189</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>7058189</v>
+        <v>8179667</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>8179667</v>
+        <v>11944249</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>11944249</v>
+        <v>12189451</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>12189451</v>
+        <v>14287128</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>14287128</v>
+        <v>13095483</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>13095483</v>
+        <v>16365537</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>16365537</v>
+        <v>18472174</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>18472174</v>
+        <v>16232175</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>16232175</v>
+        <v>10993310</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>10993310</v>
+        <v>21558799</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>21558799</v>
+        <v>17363929</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>17363929</v>
+        <v>4816391</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>4816391</v>
+        <v>7794251</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>7794251</v>
+        <v>14004373</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>14004373</v>
+        <v>21167334</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>21167334</v>
+        <v>17838502</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>17838502</v>
+        <v>16640938</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>16640938</v>
+        <v>16987145</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>16987145</v>
+        <v>19844041</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>19844041</v>
+        <v>18750306</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>18750306</v>
+        <v>22979505</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>22979505</v>
+        <v>14455458</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>14455458</v>
+        <v>25675256</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>25675256</v>
+        <v>18139893</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>18139893</v>
+        <v>16835281</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>16835281</v>
+        <v>18398165</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>18398165</v>
+        <v>21892057</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>21892057</v>
+        <v>16139943</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>16139943</v>
+        <v>16900912</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>16900912</v>
+        <v>15429952</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>15429952</v>
+        <v>10435565</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>10435565</v>
+        <v>29277259</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>29277259</v>
+        <v>32313012</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7758,8 +7758,8 @@
       <c r="E48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>57</v>
+      <c r="F48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G48" s="16" t="n">
         <v>0</v>
@@ -7795,31 +7795,31 @@
         <v>0</v>
       </c>
       <c r="R48" s="16" t="n">
-        <v>0</v>
+        <v>139316</v>
       </c>
       <c r="S48" s="16" t="n">
-        <v>139316</v>
+        <v>826475</v>
       </c>
       <c r="T48" s="16" t="n">
-        <v>826475</v>
+        <v>1894185</v>
       </c>
       <c r="U48" s="16" t="n">
-        <v>1894185</v>
+        <v>380461</v>
       </c>
       <c r="V48" s="16" t="n">
-        <v>380461</v>
+        <v>186281</v>
       </c>
       <c r="W48" s="16" t="n">
-        <v>186281</v>
+        <v>37965</v>
       </c>
       <c r="X48" s="16" t="n">
-        <v>37965</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="16" t="n">
-        <v>0</v>
+        <v>233345</v>
       </c>
       <c r="Z48" s="16" t="n">
-        <v>233345</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="16" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AH48" s="16" t="n">
-        <v>0</v>
+        <v>254801</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>254801</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="16" t="n">
         <v>0</v>
@@ -7915,43 +7915,43 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13" t="n">
         <v>8624</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>57</v>
+      <c r="F49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="13" t="n">
+        <v>48210</v>
       </c>
       <c r="H49" s="13" t="n">
-        <v>48210</v>
+        <v>43847</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>43847</v>
+        <v>0</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>0</v>
+        <v>271502</v>
       </c>
       <c r="K49" s="13" t="n">
-        <v>271502</v>
+        <v>200298</v>
       </c>
       <c r="L49" s="13" t="n">
-        <v>200298</v>
+        <v>0</v>
       </c>
       <c r="M49" s="13" t="n">
-        <v>0</v>
+        <v>68191</v>
       </c>
       <c r="N49" s="13" t="n">
-        <v>68191</v>
+        <v>58918</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>58918</v>
+        <v>70526</v>
       </c>
       <c r="P49" s="13" t="n">
-        <v>70526</v>
-      </c>
-      <c r="Q49" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R49" s="13" t="s">
         <v>57</v>
@@ -8074,11 +8074,11 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="n">
-        <v>13425</v>
-      </c>
-      <c r="F50" s="16" t="n">
         <v>5182</v>
       </c>
+      <c r="F50" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G50" s="16" t="s">
         <v>57</v>
       </c>
@@ -8091,26 +8091,26 @@
       <c r="J50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>57</v>
+      <c r="K50" s="16" t="n">
+        <v>267762</v>
       </c>
       <c r="L50" s="16" t="n">
-        <v>267762</v>
+        <v>256071</v>
       </c>
       <c r="M50" s="16" t="n">
-        <v>256071</v>
+        <v>107439</v>
       </c>
       <c r="N50" s="16" t="n">
-        <v>107439</v>
+        <v>28063</v>
       </c>
       <c r="O50" s="16" t="n">
-        <v>28063</v>
+        <v>0</v>
       </c>
       <c r="P50" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="16" t="n">
         <v>17948</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
@@ -8235,17 +8235,17 @@
       <c r="E51" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>57</v>
+      <c r="F51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="13" t="n">
+        <v>56145</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>56145</v>
+        <v>10692</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>10692</v>
+        <v>0</v>
       </c>
       <c r="J51" s="13" t="n">
         <v>0</v>
@@ -8254,34 +8254,34 @@
         <v>0</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>0</v>
+        <v>4411</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="13" t="n">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="R51" s="13" t="n">
-        <v>7485</v>
+        <v>15012</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>15012</v>
+        <v>19853</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>19853</v>
-      </c>
-      <c r="U51" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V51" s="13" t="s">
         <v>57</v>
@@ -8392,43 +8392,43 @@
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16" t="n">
-        <v>803440</v>
+        <v>2751774</v>
       </c>
       <c r="F52" s="16" t="n">
-        <v>2751774</v>
+        <v>1292833</v>
       </c>
       <c r="G52" s="16" t="n">
-        <v>1292833</v>
+        <v>2875706</v>
       </c>
       <c r="H52" s="16" t="n">
-        <v>2875706</v>
+        <v>4099277</v>
       </c>
       <c r="I52" s="16" t="n">
-        <v>4099277</v>
+        <v>4515129</v>
       </c>
       <c r="J52" s="16" t="n">
-        <v>4515129</v>
+        <v>3712977</v>
       </c>
       <c r="K52" s="16" t="n">
-        <v>3712977</v>
+        <v>3185372</v>
       </c>
       <c r="L52" s="16" t="n">
-        <v>3185372</v>
+        <v>2880662</v>
       </c>
       <c r="M52" s="16" t="n">
-        <v>2880662</v>
+        <v>2987034</v>
       </c>
       <c r="N52" s="16" t="n">
-        <v>2987034</v>
+        <v>3404622</v>
       </c>
       <c r="O52" s="16" t="n">
-        <v>3404622</v>
+        <v>3150615</v>
       </c>
       <c r="P52" s="16" t="n">
-        <v>3150615</v>
-      </c>
-      <c r="Q52" s="16" t="n">
         <v>3170573</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
@@ -8551,43 +8551,43 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="n">
-        <v>863694</v>
+        <v>739715</v>
       </c>
       <c r="F53" s="13" t="n">
-        <v>739715</v>
+        <v>1244780</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>1244780</v>
+        <v>980723</v>
       </c>
       <c r="H53" s="13" t="n">
-        <v>980723</v>
+        <v>915460</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>915460</v>
+        <v>1004329</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>1004329</v>
+        <v>553833</v>
       </c>
       <c r="K53" s="13" t="n">
-        <v>553833</v>
+        <v>1033465</v>
       </c>
       <c r="L53" s="13" t="n">
-        <v>1033465</v>
+        <v>674995</v>
       </c>
       <c r="M53" s="13" t="n">
-        <v>674995</v>
+        <v>841523</v>
       </c>
       <c r="N53" s="13" t="n">
-        <v>841523</v>
+        <v>1162544</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>1162544</v>
+        <v>681151</v>
       </c>
       <c r="P53" s="13" t="n">
-        <v>681151</v>
-      </c>
-      <c r="Q53" s="13" t="n">
         <v>1222639</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R53" s="13" t="s">
         <v>57</v>
@@ -8814,11 +8814,11 @@
       <c r="T55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>57</v>
+      <c r="U55" s="13" t="n">
+        <v>6785</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="W55" s="13" t="n">
         <v>0</v>
@@ -8827,13 +8827,13 @@
         <v>0</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>3936</v>
+        <v>6416</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>6416</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="13" t="n">
         <v>0</v>
@@ -8877,8 +8877,8 @@
       <c r="AO55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP55" s="13" t="n">
-        <v>0</v>
+      <c r="AP55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ55" s="13" t="s">
         <v>57</v>
@@ -8973,11 +8973,11 @@
       <c r="T56" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="18" t="s">
-        <v>57</v>
+      <c r="U56" s="23" t="n">
+        <v>6785</v>
       </c>
       <c r="V56" s="23" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="W56" s="23" t="n">
         <v>0</v>
@@ -8986,13 +8986,13 @@
         <v>0</v>
       </c>
       <c r="Y56" s="23" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Z56" s="23" t="n">
-        <v>3936</v>
+        <v>6416</v>
       </c>
       <c r="AA56" s="23" t="n">
-        <v>6416</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="23" t="n">
         <v>0</v>
@@ -9189,8 +9189,8 @@
       <c r="T58" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="20" t="s">
-        <v>57</v>
+      <c r="U58" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V58" s="24" t="n">
         <v>0</v>
@@ -9405,8 +9405,8 @@
       <c r="T60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>57</v>
+      <c r="U60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="13" t="n">
         <v>0</v>
@@ -9515,154 +9515,154 @@
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23" t="n">
-        <v>1680559</v>
+        <v>3505295</v>
       </c>
       <c r="F61" s="23" t="n">
-        <v>3505295</v>
+        <v>2537613</v>
       </c>
       <c r="G61" s="23" t="n">
-        <v>2537613</v>
+        <v>3960784</v>
       </c>
       <c r="H61" s="23" t="n">
-        <v>3960784</v>
+        <v>5069276</v>
       </c>
       <c r="I61" s="23" t="n">
-        <v>5069276</v>
+        <v>5519458</v>
       </c>
       <c r="J61" s="23" t="n">
-        <v>5519458</v>
+        <v>4538312</v>
       </c>
       <c r="K61" s="23" t="n">
-        <v>4538312</v>
+        <v>4686897</v>
       </c>
       <c r="L61" s="23" t="n">
-        <v>4686897</v>
+        <v>3815378</v>
       </c>
       <c r="M61" s="23" t="n">
-        <v>3815378</v>
+        <v>4004187</v>
       </c>
       <c r="N61" s="23" t="n">
-        <v>4004187</v>
+        <v>4658558</v>
       </c>
       <c r="O61" s="23" t="n">
-        <v>4658558</v>
+        <v>3902292</v>
       </c>
       <c r="P61" s="23" t="n">
-        <v>3902292</v>
+        <v>4411160</v>
       </c>
       <c r="Q61" s="23" t="n">
-        <v>4411160</v>
+        <v>4754818</v>
       </c>
       <c r="R61" s="23" t="n">
-        <v>4754818</v>
+        <v>4090185</v>
       </c>
       <c r="S61" s="23" t="n">
-        <v>4090185</v>
+        <v>6268871</v>
       </c>
       <c r="T61" s="23" t="n">
-        <v>6268871</v>
+        <v>4868000</v>
       </c>
       <c r="U61" s="23" t="n">
-        <v>4868000</v>
+        <v>7445435</v>
       </c>
       <c r="V61" s="23" t="n">
-        <v>7445435</v>
+        <v>8365948</v>
       </c>
       <c r="W61" s="23" t="n">
-        <v>8365948</v>
+        <v>11982214</v>
       </c>
       <c r="X61" s="23" t="n">
-        <v>11982214</v>
+        <v>12189451</v>
       </c>
       <c r="Y61" s="23" t="n">
-        <v>12189451</v>
+        <v>14524409</v>
       </c>
       <c r="Z61" s="23" t="n">
-        <v>14524409</v>
+        <v>13101899</v>
       </c>
       <c r="AA61" s="23" t="n">
-        <v>13101899</v>
+        <v>16365537</v>
       </c>
       <c r="AB61" s="23" t="n">
-        <v>16365537</v>
+        <v>18472174</v>
       </c>
       <c r="AC61" s="23" t="n">
-        <v>18472174</v>
+        <v>16232175</v>
       </c>
       <c r="AD61" s="23" t="n">
-        <v>16232175</v>
+        <v>10993310</v>
       </c>
       <c r="AE61" s="23" t="n">
-        <v>10993310</v>
+        <v>21558799</v>
       </c>
       <c r="AF61" s="23" t="n">
-        <v>21558799</v>
+        <v>17363929</v>
       </c>
       <c r="AG61" s="23" t="n">
-        <v>17363929</v>
+        <v>4816391</v>
       </c>
       <c r="AH61" s="23" t="n">
-        <v>4816391</v>
+        <v>8049052</v>
       </c>
       <c r="AI61" s="23" t="n">
-        <v>8049052</v>
+        <v>14004373</v>
       </c>
       <c r="AJ61" s="23" t="n">
-        <v>14004373</v>
+        <v>21167334</v>
       </c>
       <c r="AK61" s="23" t="n">
-        <v>21167334</v>
+        <v>17838502</v>
       </c>
       <c r="AL61" s="23" t="n">
-        <v>17838502</v>
+        <v>16640938</v>
       </c>
       <c r="AM61" s="23" t="n">
-        <v>16640938</v>
+        <v>16987145</v>
       </c>
       <c r="AN61" s="23" t="n">
-        <v>16987145</v>
+        <v>19844041</v>
       </c>
       <c r="AO61" s="23" t="n">
-        <v>19844041</v>
+        <v>18750306</v>
       </c>
       <c r="AP61" s="23" t="n">
-        <v>18750306</v>
+        <v>22979505</v>
       </c>
       <c r="AQ61" s="23" t="n">
-        <v>22979505</v>
+        <v>14455458</v>
       </c>
       <c r="AR61" s="23" t="n">
-        <v>14455458</v>
+        <v>25675256</v>
       </c>
       <c r="AS61" s="23" t="n">
-        <v>25675256</v>
+        <v>18139893</v>
       </c>
       <c r="AT61" s="23" t="n">
-        <v>18139893</v>
+        <v>16835281</v>
       </c>
       <c r="AU61" s="23" t="n">
-        <v>16835281</v>
+        <v>18398165</v>
       </c>
       <c r="AV61" s="23" t="n">
-        <v>18398165</v>
+        <v>21892057</v>
       </c>
       <c r="AW61" s="23" t="n">
-        <v>21892057</v>
+        <v>16139943</v>
       </c>
       <c r="AX61" s="23" t="n">
-        <v>16139943</v>
+        <v>16900912</v>
       </c>
       <c r="AY61" s="23" t="n">
-        <v>16900912</v>
+        <v>15429952</v>
       </c>
       <c r="AZ61" s="23" t="n">
-        <v>15429952</v>
+        <v>10435565</v>
       </c>
       <c r="BA61" s="23" t="n">
-        <v>10435565</v>
+        <v>29277259</v>
       </c>
       <c r="BB61" s="23" t="n">
-        <v>29277259</v>
+        <v>32313012</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10110,8 +10110,8 @@
       <c r="E68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>57</v>
+      <c r="F68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G68" s="13" t="n">
         <v>0</v>
@@ -10144,118 +10144,118 @@
         <v>0</v>
       </c>
       <c r="Q68" s="13" t="n">
-        <v>0</v>
+        <v>51425370</v>
       </c>
       <c r="R68" s="13" t="n">
-        <v>51425370</v>
+        <v>49882223</v>
       </c>
       <c r="S68" s="13" t="n">
-        <v>49882223</v>
+        <v>55010429</v>
       </c>
       <c r="T68" s="13" t="n">
-        <v>55010429</v>
+        <v>60850300</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>60850300</v>
+        <v>73550383</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>73550383</v>
+        <v>83279037</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>83279037</v>
+        <v>93530735</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>93530735</v>
+        <v>109010553</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>109010553</v>
+        <v>104767383</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>104767383</v>
+        <v>105510881</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>105510881</v>
+        <v>102733423</v>
       </c>
       <c r="AB68" s="13" t="n">
-        <v>102733423</v>
+        <v>115048418</v>
       </c>
       <c r="AC68" s="13" t="n">
-        <v>115048418</v>
+        <v>116408076</v>
       </c>
       <c r="AD68" s="13" t="n">
-        <v>116408076</v>
+        <v>114747923</v>
       </c>
       <c r="AE68" s="13" t="n">
-        <v>114747923</v>
+        <v>118717161</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>118717161</v>
+        <v>126953434</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>126953434</v>
+        <v>143034211</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>143034211</v>
+        <v>137467169</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>137467169</v>
+        <v>141311292</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>141311292</v>
+        <v>142739941</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>142739941</v>
+        <v>143456284</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>143456284</v>
+        <v>140226321</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>140226321</v>
+        <v>133089504</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>133089504</v>
+        <v>130494522</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>130494522</v>
+        <v>132967691</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>132967691</v>
+        <v>143023888</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>143023888</v>
+        <v>163155995</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>163155995</v>
+        <v>150779913</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>150779913</v>
+        <v>140441868</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>140441868</v>
+        <v>138173052</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>138173052</v>
+        <v>127517085</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>127517085</v>
+        <v>127265343</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>127265343</v>
+        <v>131118844</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>131118844</v>
+        <v>138152712</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>138152712</v>
+        <v>150991301</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>150991301</v>
+        <v>156629019</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>156629019</v>
+        <v>181018815</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>181018815</v>
+        <v>209320481</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,8 +10269,8 @@
       <c r="E69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>57</v>
+      <c r="F69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="G69" s="16" t="n">
         <v>0</v>
@@ -10302,36 +10302,36 @@
       <c r="P69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="16" t="s">
-        <v>57</v>
+      <c r="Q69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R69" s="16" t="n">
+        <v>23912805</v>
       </c>
       <c r="S69" s="16" t="n">
-        <v>23912805</v>
+        <v>26588438</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>26588438</v>
+        <v>27491800</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>27491800</v>
+        <v>29365622</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>29365622</v>
+        <v>28724904</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>28724904</v>
-      </c>
-      <c r="X69" s="16" t="n">
         <v>30059382</v>
       </c>
-      <c r="Y69" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="16" t="n">
+      <c r="X69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y69" s="16" t="n">
         <v>46669000</v>
       </c>
+      <c r="Z69" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AA69" s="16" t="s">
         <v>57</v>
       </c>
@@ -10353,11 +10353,11 @@
       <c r="AG69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AH69" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI69" s="16" t="n">
+      <c r="AH69" s="16" t="n">
         <v>84990327</v>
+      </c>
+      <c r="AI69" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AJ69" s="16" t="s">
         <v>57</v>
@@ -10426,43 +10426,43 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="13" t="n">
         <v>15482944</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>57</v>
+      <c r="F70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="13" t="n">
+        <v>16915789</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>16915789</v>
+        <v>22920544</v>
       </c>
       <c r="I70" s="13" t="n">
-        <v>22920544</v>
+        <v>0</v>
       </c>
       <c r="J70" s="13" t="n">
-        <v>0</v>
+        <v>21661241</v>
       </c>
       <c r="K70" s="13" t="n">
-        <v>21661241</v>
+        <v>20384490</v>
       </c>
       <c r="L70" s="13" t="n">
-        <v>20384490</v>
+        <v>0</v>
       </c>
       <c r="M70" s="13" t="n">
-        <v>0</v>
+        <v>19058413</v>
       </c>
       <c r="N70" s="13" t="n">
-        <v>19058413</v>
+        <v>20033322</v>
       </c>
       <c r="O70" s="13" t="n">
-        <v>20033322</v>
+        <v>20330355</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>20330355</v>
-      </c>
-      <c r="Q70" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R70" s="13" t="s">
         <v>57</v>
@@ -10585,11 +10585,11 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>12051167</v>
-      </c>
-      <c r="F71" s="16" t="n">
         <v>14005405</v>
       </c>
+      <c r="F71" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G71" s="16" t="s">
         <v>57</v>
       </c>
@@ -10602,26 +10602,26 @@
       <c r="J71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>57</v>
+      <c r="K71" s="16" t="n">
+        <v>18012916</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>18012916</v>
+        <v>18877331</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>18877331</v>
+        <v>19134283</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>19134283</v>
+        <v>19393918</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>19393918</v>
+        <v>0</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="16" t="n">
         <v>19403243</v>
+      </c>
+      <c r="Q71" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -10746,17 +10746,17 @@
       <c r="E72" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F72" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>57</v>
+      <c r="F72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="13" t="n">
+        <v>3650046</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>3650046</v>
+        <v>3650393</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>3650393</v>
+        <v>0</v>
       </c>
       <c r="J72" s="13" t="n">
         <v>0</v>
@@ -10765,31 +10765,31 @@
         <v>0</v>
       </c>
       <c r="L72" s="13" t="n">
-        <v>0</v>
+        <v>3650000</v>
       </c>
       <c r="M72" s="13" t="n">
-        <v>3650000</v>
+        <v>0</v>
       </c>
       <c r="N72" s="13" t="n">
-        <v>0</v>
+        <v>3648470</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>3648470</v>
+        <v>0</v>
       </c>
       <c r="P72" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q72" s="13" t="n">
-        <v>0</v>
+        <v>3649439</v>
       </c>
       <c r="R72" s="13" t="n">
-        <v>3649439</v>
+        <v>3649891</v>
       </c>
       <c r="S72" s="13" t="n">
-        <v>3649891</v>
-      </c>
-      <c r="T72" s="13" t="n">
         <v>3650120</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U72" s="13" t="s">
         <v>57</v>
@@ -10903,43 +10903,43 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>32574093</v>
+        <v>30280536</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>30280536</v>
+        <v>44855770</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>44855770</v>
+        <v>38958288</v>
       </c>
       <c r="H73" s="16" t="n">
-        <v>38958288</v>
+        <v>42675019</v>
       </c>
       <c r="I73" s="16" t="n">
-        <v>42675019</v>
+        <v>44252955</v>
       </c>
       <c r="J73" s="16" t="n">
-        <v>44252955</v>
+        <v>43891730</v>
       </c>
       <c r="K73" s="16" t="n">
-        <v>43891730</v>
+        <v>41524860</v>
       </c>
       <c r="L73" s="16" t="n">
-        <v>41524860</v>
+        <v>40357276</v>
       </c>
       <c r="M73" s="16" t="n">
-        <v>40357276</v>
+        <v>40282038</v>
       </c>
       <c r="N73" s="16" t="n">
-        <v>40282038</v>
+        <v>40379790</v>
       </c>
       <c r="O73" s="16" t="n">
-        <v>40379790</v>
+        <v>44197447</v>
       </c>
       <c r="P73" s="16" t="n">
-        <v>44197447</v>
-      </c>
-      <c r="Q73" s="16" t="n">
         <v>48148413</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -11062,43 +11062,43 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="n">
-        <v>30523537</v>
+        <v>37539457</v>
       </c>
       <c r="F74" s="13" t="n">
-        <v>37539457</v>
+        <v>38077147</v>
       </c>
       <c r="G74" s="13" t="n">
-        <v>38077147</v>
+        <v>40152426</v>
       </c>
       <c r="H74" s="13" t="n">
-        <v>40152426</v>
+        <v>37907246</v>
       </c>
       <c r="I74" s="13" t="n">
-        <v>37907246</v>
+        <v>34879801</v>
       </c>
       <c r="J74" s="13" t="n">
-        <v>34879801</v>
+        <v>35046067</v>
       </c>
       <c r="K74" s="13" t="n">
-        <v>35046067</v>
+        <v>33826427</v>
       </c>
       <c r="L74" s="13" t="n">
-        <v>33826427</v>
+        <v>33565142</v>
       </c>
       <c r="M74" s="13" t="n">
-        <v>33565142</v>
+        <v>34627726</v>
       </c>
       <c r="N74" s="13" t="n">
-        <v>34627726</v>
+        <v>36802178</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>36802178</v>
+        <v>40506125</v>
       </c>
       <c r="P74" s="13" t="n">
-        <v>40506125</v>
-      </c>
-      <c r="Q74" s="13" t="n">
         <v>42119299</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R74" s="13" t="s">
         <v>57</v>
@@ -11325,11 +11325,11 @@
       <c r="T76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U76" s="13" t="s">
-        <v>57</v>
+      <c r="U76" s="13" t="n">
+        <v>4650446</v>
       </c>
       <c r="V76" s="13" t="n">
-        <v>4650446</v>
+        <v>0</v>
       </c>
       <c r="W76" s="13" t="n">
         <v>0</v>
@@ -11338,13 +11338,13 @@
         <v>0</v>
       </c>
       <c r="Y76" s="13" t="n">
-        <v>0</v>
+        <v>4049383</v>
       </c>
       <c r="Z76" s="13" t="n">
-        <v>4049383</v>
+        <v>4050505</v>
       </c>
       <c r="AA76" s="13" t="n">
-        <v>4050505</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="13" t="n">
         <v>0</v>
@@ -11388,8 +11388,8 @@
       <c r="AO76" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP76" s="13" t="n">
-        <v>0</v>
+      <c r="AP76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ76" s="13" t="s">
         <v>57</v>
